--- a/prj_Apter_DownloadArquivos/resources/UiPath/NewTable.xlsx
+++ b/prj_Apter_DownloadArquivos/resources/UiPath/NewTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <x:si>
     <x:t>Column-0</x:t>
   </x:si>
@@ -43,16 +43,1120 @@
     <x:t>checked</x:t>
   </x:si>
   <x:si>
-    <x:t>71449201000542</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669610995119</x:t>
+    <x:t>61585733000120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>554025317117</x:t>
   </x:si>
   <x:si>
     <x:t>Original</x:t>
   </x:si>
   <x:si>
-    <x:t>1DB5764D1DB6145E1BD970787922553479A41AD4</x:t>
+    <x:t>4A2889DADF59BE06C60CD6B47884FD867DC86F69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-19T17:45:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61585733000200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>554091737113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9EFCEAE7AE1D06291DCAABEC8151F4F5651A8988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-19T17:46:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98D8406F5FC52C0738EFCFCEA6013833D18B53FA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-03-14T15:49:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531918CFBA414ADD61F19ECBD3763695B996CADE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-03-14T15:50:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AAF22BDA489DD4F2EE4469477A36B4997964C9D2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-03-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-03-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-04-11T14:36:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6C5DFA25321F6225DFC6A07B601CA3950F386291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-04-11T14:37:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8F2D750505B83B0ACF635E0E4556C436BF26821A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-04-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-04-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-14T16:03:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CE96BE340BC6C61529C0985094E92B6E6B21AA53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-14T16:03:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D1892B9C29EDFA50225AAC025C9831A768637C48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-13T13:44:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5DFCC4ED09808465AD2716DC0D434C073B99575E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-13T13:45:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E929D8FB5B1B533543E3C35A334E8564F75CB4F3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-07-12T10:21:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62117A81596264B032AD501BF5124EC0A953C913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-07-12T10:22:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C0781053C0467C4A3CB72721FF18464B5D0DFC37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-07-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-07-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-08-12T15:09:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142E66D4ED5E336FD9D23D45AF10688C92006C9E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-08-12T15:10:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03C3D94359A1FD6486403ECFAF739B02F298B29F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-08-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-08-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-10T08:52:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4F4C35FEB15E84C34D10C3034957512F17977000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-10T08:53:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Substituta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5132CF4B6549A00E23119A93B44A8D72E9CF6F23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-18T08:39:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1A8072829D00FA65D1CEE2181864A93E66237546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-11T08:41:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2105023C52586BEAFB372ED00C445CEACDE15A4D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-11T08:41:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B373122EF794E7E79DB10856350D5F66A7722995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-19T18:13:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A082C092028DD6C9F7F14430CBEA8F851678D57E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-19T18:14:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9DC87586B8C07B858045434A3D82804228D9D138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-16T08:44:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63941F6EC9DF25ED843CAFF5763B19FF4B49F23F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-16T08:45:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90C2BFEAFDE8053990D3EF1E760A1D1DC6775472</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-01-15T14:49:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B61048BE1C9948B0FB8BE51224F66C918642E51F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-01-15T14:51:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EEA7037DFBB55832A1DC64AC5077B6A3884409C8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-01-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-01-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-02-12T08:44:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C77E787C24CA5F4B1A404486B3E61140A828A2FC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-02-12T08:45:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0DB5C6C8A6884142F5974CD7E8F0E1DB575FF872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-02-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-02-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-03-10T17:51:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04DC668D88100067AFC2FC953F4460FC51A59205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-03-10T17:51:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE103EB2EA479FD51A71B08DE77A7F7B37778CF3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-03-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-03-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-04-09T14:45:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9ED60995232DCB189347ADCF5E277CF3B2429368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-04-09T14:45:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EDAFA3A479FF9684F7223700160442E39C8A7515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-04-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-04-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-05-14T09:53:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6A4A919959A8983D0B0FF95CF1931639235A1D4C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-05-14T09:53:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1AD59AE60ED5DD4966E2BB6F0ABF42EADFE0B4C0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-06-17T15:37:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33533A47F9B3CB1C2C85DC899DAD03ACB451F1BE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-05-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-05-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-06-17T15:38:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3BE938C9556189E4381A734236F45D1C37EEAAF3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-06-17T15:38:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99BC2F39CB6F619C893ABB1A8403A4F0BD3228DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-06-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-07-09T14:48:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305A853CD1A375129C0E2810CFC1C97FBE6B6C9F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-07-09T14:49:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AF327CD9FB855EE16D3672BD8593AAF3E3B39807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-07-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-07-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-08-11T14:38:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7644602D053302F581DA4470AA0DAC8E0BD3FD1D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-08-11T14:39:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8D330BFFDF70F5C65091D4D72CA65DD3EF1E1C0E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-08-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-08-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-09-15T09:17:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CB181B8E0D8E4E9514C97AE8A254E07F08F7895E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-09-15T09:19:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ED443DF50E661BBA89BDFED9DC52A686FC033103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-09-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-09-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-10-19T09:22:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F2B603FC03BE2DF52061C111E4BE2AB11CD4E220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-10-19T09:23:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7A3ACE9672D401044682D2427E66D3F0C124F933</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-10-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-10-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-11-19T15:25:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B9998B74E6C2D1F2DA1682F863914B5DB4D27C75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-11-19T15:26:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>878FD845EB50EB182E5ADAE948D470A4B08DD468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-11-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-12-08T09:08:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A4207E6BCF8D94CCEF1C7E8E3D96D77B4D8C6D5C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-12-08T09:09:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3E433BF0F5FC7DF00A07D0C5DADFFF182D9C5A22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-12-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-12-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-01-13T15:35:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275566A4A9B3BFF8E13601C89773810FF5A2B66A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-01-13T15:36:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>975D0DF189E684473D43DEA4A1BEBF15C1402E52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-01-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-01-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-02-09T09:58:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>726D0E73EB2435C3344B7206DF242832E446BF68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-02-09T10:00:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F44D3160BD614943310D600F44C3D7E3C79D7BA9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-03-02T15:54:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52E3366B746AB966373FB6D7AA24BD930A773695</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-02-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-02-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-03-10T10:29:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1398B27EDE954F2F552BB32BF04AD02C9A3E6D70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-03-10T10:30:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C5A20362732751C6E3132B178DF9DCECEF7DBF1B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-03-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-03-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-04-14T08:50:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3C072ED3597BA2D859083B209EB00F2DBDAA631A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-04-14T08:56:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A6A0C9B473267FF78695AE840F89C06B16786FF4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-04-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-04-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-05-12T15:49:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9AA3DBF9ADA09A95D02835E74C4DF2F1557A689D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-05-12T15:49:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1BBAB602328B6A8AC305308EDF347EC2FDA4FB99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-05-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-05-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-06-14T15:18:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2FAEF5B2BAC1DC22570AD78E83D4EEBDEC6EF256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-06-14T15:19:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4D7499ACF9516CEA6DC8B322D9D3CBFD2E99C7B8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-06-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-07-13T14:35:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C09BFA7B6B2EA1BD58614ECE0930DF2098A99E08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-07-13T14:35:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F5721CC46FE1314ED1BD40F3B04B60B0660DE5B6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-07-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-07-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-08-17T14:22:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A9B85BFFDD1445207165044F201FA734794F2365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-08-17T14:23:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D0F4514CF589809F3865EFB4E5B8B5A286A6816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-08-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-08-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-08T15:36:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4708E3A1DAE5FF7005FD6FB43A63FCFA7F180E12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-08T15:36:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63874769CED6158198F80804B33E26273440E65D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-10-13T15:50:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D1AFB2087F20D07F195ABE2E7AC2A448ED574ABE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-10-13T15:50:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D960B2B3C114BC87F7FA497C74A073CD9B8B8699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-10-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-10-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-11-16T08:46:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4724846FF6B3CCFC4D7F7E3030B79F7A50FDB5F0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-11-16T08:46:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EB0D892635F2D6EBA07876240AB61DB7E495FD14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-11-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-12-13T14:22:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1A89A19D38E048F1ECB6E0504D24E4A08C48666C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-12-13T14:22:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB490D7DDB40C0ADF35A7952DBFACD7EA57E10C2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-12-27T16:38:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1B05EFF96F2C198B6D0888B96225BA0B71D4FADE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-12-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-12-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-01-13T08:21:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1D14ED4490F1B97A841E2D24B018FA647FC4F226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-01-13T08:23:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D519A2E9D65B6FBCE7BA3E59E94EB18378E46C39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-01-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-01-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-02-09T13:50:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0A5D5577C9EF1237400B2D148B7F07A642902E41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-02-09T13:52:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F9A59A95E39CADDC1427F507478224820188EF45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-02-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-02-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-03-08T16:21:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1B3ABC24F6F27B3947BC0A74F2B596CF5E3A50FF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-03-08T16:22:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5A18C144997D12FE1DED0DE06CD148B3EF622426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-03-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-03-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-04-13T13:54:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2816DCD8AEF9B5A54D26B412A5231F189F177E97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-04-13T13:55:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1BAB48AAB0F168B8EC3C8B4BA5A229D2A4025B0F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-04-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-04-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-05-17T09:18:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A031644FBB1FAE4D95AB678F8995DC8050F2F4F9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-05-17T09:19:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C7B646B0CB3547BA8195221882D734CC3905E4E9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-05-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-05-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-06-13T13:39:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C5CFADCC07F061280077B467EA101A8FC4736B81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-06-13T13:40:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128FE1CE0ABDAB230209EB0E5A08C4CD0434CCA2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-06-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-07-13T14:16:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B391ACF8FE0F8E580312DDDE7438D15B7DB81852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-07-13T14:18:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FE48CF3E48BDC979EBCA8D7E1E2EC82C996EFC3F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-07-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-07-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-08-11T11:05:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7FED123848A3AE1FCA0B95E49955FB7C3DCF3E1A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-08-11T11:06:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>681E35D85A313A30297BDE666AC006AEF1734D38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-08-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-08-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-09-26T11:29:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8807A01814A77BE3DE6986F2C30ACD37A8ACF7D4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-09-26T11:30:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D946AD82CC11195D6C5388D061402A2E518E1292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-09-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-09-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-10-10T14:39:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35BDA123B212FCA55C1E7B8626ACB380FA16B712</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-10-10T14:40:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>413AD9D2B6C35782E3DE5268A422B9286912FAD8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-10-20T17:09:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BF69A2BCF1524CF8F86BA8F5278C053555264D7F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-10-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-10-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-11-08T08:43:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45369964BD1A2E1CE232BE1C58ACBD1B18889FFC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-11-08T08:44:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87525EE60C554C218B5A650BE958B97388837D7A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-11-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-12-12T16:10:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C749106D5BF348654DBD8DEEF42844CF13085C4D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-12-12T16:11:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AF3A547C346926DEBBD56038A435C848B027744B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-12-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-12-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-16T15:23:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F7B4D7907D1820745389541C320DBE74EC2D062B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-16T15:24:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>498FAC8A4DAFCB271DDB3587C1EAEB5454286FFE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-20T14:35:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E766DF0F42868A08F341EFF8A409AB2542D54A75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-02-16T17:44:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82C9CE2731991D1F7D110B964FE1E1B1BC3F6C3C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-02-16T17:45:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BDBF32DEED218D2DE9AE563072B5D2EBF2DB1EF4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-02-23T11:52:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96E0C55C27D6CB2E000909B83D82FBEC3269506F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-02-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-02-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-03-15T14:21:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54B4351A8C77B2BC151B730D0250B2CE852E2DA9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-03-15T14:22:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A6A263C5155A5FA0DBF8D1C20740FB034E43B948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-03-21T15:43:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5D29B4BA20AF3A6686CE9403D4AF4445CFA734DC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-03-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-03-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-04-18T17:27:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C94533F5EA23E40A9465EDF4BBAD8DBD83E84361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-04-18T17:28:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11A844367D85AC40F273FCE9E673EC3A3045420D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-04-25T16:51:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E3CE58F05A35543B1404B8FFFEB1C77C63BAFA20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-04-26T08:47:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8187C6B78AB466BC541215E1E00C1AD9D787F387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-04-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-04-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-05-11T10:16:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CEDB4598FB4A77617141FD6E571D38269051DB29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-05-11T10:18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830ECBA2E487481D8F16B4222A7D60D55DD444F9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-05-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-05-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-06-12T10:02:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BF9C2B1281A857AA3B3D788908FCE75BFFF11D50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-06-12T10:03:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103E38CA463BECE2F7BAC977323D213324931807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-06-14T14:00:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67A81B78EFF5A3F972878BE4E06BD63FB7F5B05E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-06-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-07-07T08:24:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4107CF4A3461B8770AAA778D945A89AD692428C6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-07-07T08:26:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EF40B29C5326E8A1B0B6959AF33D645DEAD5DABB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-07-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-07-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-08-11T08:18:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CCA181B13208CF6A875DB67A23E4693D55C0C3F9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-08-11T08:19:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11F75544600F5C7E31DCD5E82923B00D8E21AB3D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-08-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-08-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-09-12T10:42:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6E98B183C150FC7335DD09024436C327FB02F7C8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-09-12T10:45:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FDF0E6C1BCEBEBC8AE1E853B86699DA685641C41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-09-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-09-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-10-16T10:12:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>006CE1C204326FA944D94957AF0F6AA91F9ED2B4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-09-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-10-16T10:23:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27C71A4673E061538935B40DACF6271CDB9154FC</x:t>
   </x:si>
   <x:si>
     <x:t>2023-10-01</x:t>
@@ -61,70 +1165,16 @@
     <x:t>2023-10-31</x:t>
   </x:si>
   <x:si>
-    <x:t>2023-11-14T14:46:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71449201000380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371097598112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233EB1E059C6094309F331414842D72840E9D840</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-11-14T14:46:49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71449201000623</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669713776110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04D30D5804D34DD58F2DCBD20C251506DF23EF3A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-11-14T14:46:55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71449201000895</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0045961100111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92C80AAA002B2AB8D75FF3AF7F7275B13DFD6A7D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-11-14T15:21:11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71449201000461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>353219747112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D5FA6B60FB7E2658D830383B7C4CA61BF3B8DDEE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-11-16T14:21:53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71449201000119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669025008110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26D640A3533746C9DCE84D60808D65BD976E236F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-11-17T17:03:32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAF3CD0F2269D68B67473A569D815E73AE8325E0</x:t>
+    <x:t>2023-11-14T17:37:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9B68AAA4E5026088C94774347A488DFCA7ED10E0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-11-14T17:38:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39790ED43D65CBA69E460F39BE61455D53A65B58</x:t>
   </x:si>
   <x:si>
     <x:t>2023-11-01</x:t>
@@ -133,49 +1183,16 @@
     <x:t>2023-11-30</x:t>
   </x:si>
   <x:si>
-    <x:t>2023-12-15T16:53:38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1A83ED56F8D04F783D1D2281D9D5CB8CE37A6D12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-12-18T17:13:08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5B37D50A71CB7C5BB471161B3D9188644842D9D4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-12-18T17:14:17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADF666E3F679D5936D32EDD79F4E999F4E215B38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-12-18T17:18:19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A7630A55E715E9476FE9B2DBA73DD5DB546176C0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-12-18T17:19:22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Substituta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8A606B50EF4C20A816B7900A1764BBB3DA912A1B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-12-20T13:32:38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>431E6C1202626F73131625D6A76D5481E17B90B3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-12-20T17:10:10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B89F026F0CA4C95606227D1DAFD525350169D6DB</x:t>
+    <x:t>2023-12-18T15:04:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBF494F0A0A8EE8C6334745C59114F90C4CFE567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-12-18T15:05:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E2EAFFF5B39B8D23B73394EB22688D376EBC73E3</x:t>
   </x:si>
   <x:si>
     <x:t>2023-12-01</x:t>
@@ -184,37 +1201,13 @@
     <x:t>2023-12-31</x:t>
   </x:si>
   <x:si>
-    <x:t>2024-01-12T15:49:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1CF1CC7A4095787AE943EEB1287FE30E06B32A4F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024-01-16T18:34:13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49FE9E8BBE52B1F77D3E3D27AFD21A6FE1F0F8F3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024-01-16T18:34:26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C89A2473F5043398FF57C75616FE2D5390FE9D92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024-01-16T18:34:53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D21BAEE3BD4288E3B572AD4DB2A040DB7A579DC0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024-01-16T18:35:16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4F6F6B42A3EF4EAC196ADCDED79DFFF7708B1363</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024-01-18T15:32:56</x:t>
+    <x:t>2024-01-10T10:42:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7997EA7113D9B07F9C605F5F3554803354FC5E0D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024-01-10T10:43:03</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -565,7 +1558,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H20"/>
+  <x:dimension ref="A1:H132"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -654,22 +1647,22 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>23</x:v>
@@ -680,25 +1673,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -706,25 +1699,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -732,25 +1725,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -758,25 +1751,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -784,25 +1777,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -819,16 +1812,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -836,25 +1829,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -862,22 +1855,22 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
         <x:v>47</x:v>
@@ -888,25 +1881,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E13" s="0" t="s">
+      <x:c r="F13" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
         <x:v>49</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -914,25 +1907,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -940,25 +1933,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -975,16 +1968,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -1001,16 +1994,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -1018,25 +2011,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -1044,25 +2037,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -1070,25 +2063,2937 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
+      <x:c r="A26" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8">
+      <x:c r="A27" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8">
+      <x:c r="A28" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8">
+      <x:c r="A29" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8">
+      <x:c r="A30" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8">
+      <x:c r="A31" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:8">
+      <x:c r="A32" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8">
+      <x:c r="A33" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8">
+      <x:c r="A34" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8">
+      <x:c r="A35" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8">
+      <x:c r="A36" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8">
+      <x:c r="A37" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:8">
+      <x:c r="A38" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8">
+      <x:c r="A39" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8">
+      <x:c r="A40" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8">
+      <x:c r="A41" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8">
+      <x:c r="A42" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
+      <x:c r="A43" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
+      <x:c r="A44" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8">
+      <x:c r="A45" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8">
+      <x:c r="A46" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8">
+      <x:c r="A47" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:8">
+      <x:c r="A48" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:8">
+      <x:c r="A49" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:8">
+      <x:c r="A50" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:8">
+      <x:c r="A51" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:8">
+      <x:c r="A52" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:8">
+      <x:c r="A53" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:8">
+      <x:c r="A54" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:8">
+      <x:c r="A55" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:8">
+      <x:c r="A56" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:8">
+      <x:c r="A57" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:8">
+      <x:c r="A58" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:8">
+      <x:c r="A59" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:8">
+      <x:c r="A60" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:8">
+      <x:c r="A61" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:8">
+      <x:c r="A62" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:8">
+      <x:c r="A63" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:8">
+      <x:c r="A64" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:8">
+      <x:c r="A65" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:8">
+      <x:c r="A66" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:8">
+      <x:c r="A67" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:8">
+      <x:c r="A68" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:8">
+      <x:c r="A69" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:8">
+      <x:c r="A70" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:8">
+      <x:c r="A71" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:8">
+      <x:c r="A72" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:8">
+      <x:c r="A73" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:8">
+      <x:c r="A74" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:8">
+      <x:c r="A75" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:8">
+      <x:c r="A76" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:8">
+      <x:c r="A77" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:8">
+      <x:c r="A78" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:8">
+      <x:c r="A79" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:8">
+      <x:c r="A80" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:8">
+      <x:c r="A81" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:8">
+      <x:c r="A82" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="H82" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:8">
+      <x:c r="A83" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:8">
+      <x:c r="A84" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:8">
+      <x:c r="A85" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:8">
+      <x:c r="A86" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="H86" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:8">
+      <x:c r="A87" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="H87" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:8">
+      <x:c r="A88" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="H88" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:8">
+      <x:c r="A89" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:8">
+      <x:c r="A90" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="G90" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="H90" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:8">
+      <x:c r="A91" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="G91" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="H91" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:8">
+      <x:c r="A92" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="H92" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:8">
+      <x:c r="A93" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="G93" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="H93" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:8">
+      <x:c r="A94" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="H94" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:8">
+      <x:c r="A95" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G95" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="H95" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:8">
+      <x:c r="A96" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:8">
+      <x:c r="A97" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="H97" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:8">
+      <x:c r="A98" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="H98" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:8">
+      <x:c r="A99" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="H99" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:8">
+      <x:c r="A100" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="H100" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:8">
+      <x:c r="A101" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="H101" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:8">
+      <x:c r="A102" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="H102" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:8">
+      <x:c r="A103" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="F103" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="G103" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="H103" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:8">
+      <x:c r="A104" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="F104" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="G104" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="H104" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:8">
+      <x:c r="A105" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="F105" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="G105" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="H105" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:8">
+      <x:c r="A106" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="F106" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="G106" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="H106" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:8">
+      <x:c r="A107" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="F107" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="G107" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="H107" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:8">
+      <x:c r="A108" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="F108" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="G108" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="H108" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:8">
+      <x:c r="A109" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="F109" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="G109" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="H109" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:8">
+      <x:c r="A110" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="F110" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="G110" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="H110" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:8">
+      <x:c r="A111" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="F111" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="G111" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="H111" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:8">
+      <x:c r="A112" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="F112" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="G112" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="H112" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:8">
+      <x:c r="A113" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="F113" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="G113" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="H113" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:8">
+      <x:c r="A114" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="F114" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="G114" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="H114" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:8">
+      <x:c r="A115" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D115" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E115" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="F115" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="G115" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="H115" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:8">
+      <x:c r="A116" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="F116" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="G116" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="H116" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:8">
+      <x:c r="A117" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D117" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E117" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="F117" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="G117" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="H117" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:8">
+      <x:c r="A118" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E118" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="F118" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="G118" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="H118" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:8">
+      <x:c r="A119" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D119" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E119" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="F119" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="G119" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="H119" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:8">
+      <x:c r="A120" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D120" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E120" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="F120" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="G120" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="H120" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:8">
+      <x:c r="A121" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D121" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E121" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="F121" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="G121" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="H121" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:8">
+      <x:c r="A122" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D122" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E122" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="F122" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="G122" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="H122" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:8">
+      <x:c r="A123" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D123" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E123" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="F123" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="G123" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="H123" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:8">
+      <x:c r="A124" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D124" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E124" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="F124" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="G124" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="H124" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:8">
+      <x:c r="A125" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D125" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E125" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="F125" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="G125" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="H125" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:8">
+      <x:c r="A126" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D126" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E126" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="F126" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="G126" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="H126" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:8">
+      <x:c r="A127" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D127" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E127" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="F127" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="G127" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="H127" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:8">
+      <x:c r="A128" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D128" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E128" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="F128" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="G128" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="H128" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:8">
+      <x:c r="A129" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D129" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E129" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="F129" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="G129" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="H129" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:8">
+      <x:c r="A130" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D130" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E130" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="F130" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="G130" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="H130" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:8">
+      <x:c r="A131" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E131" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="F131" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="G131" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="H131" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:8">
+      <x:c r="A132" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="F132" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="G132" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="H132" s="0" t="s">
+        <x:v>397</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
